--- a/database/source-data/2025-12-13-paper-sizes.xlsx
+++ b/database/source-data/2025-12-13-paper-sizes.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/source-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/source-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB0F73E-FF11-774E-A1C1-76AE8A4CEFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CDB4A3-9E2B-AD46-9922-2AA7A7F2BD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="17120" windowHeight="19740" xr2:uid="{93184DE9-98C7-814E-8D8A-BE7B3680B696}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="24600" windowHeight="19740" activeTab="1" xr2:uid="{93184DE9-98C7-814E-8D8A-BE7B3680B696}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="in2mm">Sheet1!$B$23</definedName>
@@ -22,7 +23,7 @@
     <definedName name="mm2pt">Sheet1!$C$25</definedName>
     <definedName name="pt2in">Sheet1!$C$24</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
   <si>
     <t>size</t>
   </si>
@@ -154,13 +177,229 @@
   </si>
   <si>
     <t>40x60</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>mmX</t>
+  </si>
+  <si>
+    <t>mmY</t>
+  </si>
+  <si>
+    <t>ptX</t>
+  </si>
+  <si>
+    <t>ptY</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>841 × 1189</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>594 × 841</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>420 × 594</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>297 × 420</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>210 × 297</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>148 × 210</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>105 × 148</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>74 × 105</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>52 × 74</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>37 × 52</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>26 × 37</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>1000 × 1414</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>707 × 1000</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>500 × 707</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>353 × 500</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>250 × 353</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>176 × 250</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>125 × 176</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>88 × 125</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>62 × 88</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>44 × 62</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>31 × 44</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>917 × 1297</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>648 × 917</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>458 × 648</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>324 × 458</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>229 × 324</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>162 × 229</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>114 × 162</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>81 × 114</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>57 × 81</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>40 × 57</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>28 × 40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,6 +412,12 @@
       <sz val="16"/>
       <color rgb="FFAAAAAA"/>
       <name val="Source Code Pro"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,10 +440,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B242DB-88F7-CE49-83A3-E832D807495F}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,11 +1031,11 @@
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <f>B10*72</f>
+        <f t="shared" ref="D10:D19" si="8">B10*72</f>
         <v>612</v>
       </c>
       <c r="E10" s="1">
-        <f>C10*72</f>
+        <f t="shared" ref="E10:E19" si="9">C10*72</f>
         <v>792</v>
       </c>
       <c r="F10" t="str">
@@ -812,11 +1058,11 @@
         <v>14</v>
       </c>
       <c r="D11" s="1">
-        <f>B11*72</f>
+        <f t="shared" si="8"/>
         <v>612</v>
       </c>
       <c r="E11" s="1">
-        <f>C11*72</f>
+        <f t="shared" si="9"/>
         <v>1008</v>
       </c>
       <c r="F11" t="str">
@@ -839,11 +1085,11 @@
         <v>17</v>
       </c>
       <c r="D12" s="1">
-        <f>B12*72</f>
+        <f t="shared" si="8"/>
         <v>792</v>
       </c>
       <c r="E12" s="1">
-        <f>C12*72</f>
+        <f t="shared" si="9"/>
         <v>1224</v>
       </c>
       <c r="F12" t="str">
@@ -866,11 +1112,11 @@
         <v>10.5</v>
       </c>
       <c r="D13" s="1">
-        <f>B13*72</f>
+        <f t="shared" si="8"/>
         <v>522</v>
       </c>
       <c r="E13" s="1">
-        <f>C13*72</f>
+        <f t="shared" si="9"/>
         <v>756</v>
       </c>
       <c r="F13" t="str">
@@ -893,11 +1139,11 @@
         <v>11</v>
       </c>
       <c r="D14" s="1">
-        <f>B14*72</f>
+        <f t="shared" si="8"/>
         <v>612</v>
       </c>
       <c r="E14" s="1">
-        <f>C14*72</f>
+        <f t="shared" si="9"/>
         <v>792</v>
       </c>
       <c r="F14" t="str">
@@ -920,11 +1166,11 @@
         <v>17</v>
       </c>
       <c r="D15" s="1">
-        <f>B15*72</f>
+        <f t="shared" si="8"/>
         <v>792</v>
       </c>
       <c r="E15" s="1">
-        <f>C15*72</f>
+        <f t="shared" si="9"/>
         <v>1224</v>
       </c>
       <c r="F15" t="str">
@@ -947,11 +1193,11 @@
         <v>22</v>
       </c>
       <c r="D16" s="1">
-        <f>B16*72</f>
+        <f t="shared" si="8"/>
         <v>1224</v>
       </c>
       <c r="E16" s="1">
-        <f>C16*72</f>
+        <f t="shared" si="9"/>
         <v>1584</v>
       </c>
       <c r="F16" t="str">
@@ -974,11 +1220,11 @@
         <v>34</v>
       </c>
       <c r="D17" s="1">
-        <f>B17*72</f>
+        <f t="shared" si="8"/>
         <v>1584</v>
       </c>
       <c r="E17" s="1">
-        <f>C17*72</f>
+        <f t="shared" si="9"/>
         <v>2448</v>
       </c>
       <c r="F17" t="str">
@@ -1001,11 +1247,11 @@
         <v>44</v>
       </c>
       <c r="D18" s="1">
-        <f>B18*72</f>
+        <f t="shared" si="8"/>
         <v>2448</v>
       </c>
       <c r="E18" s="1">
-        <f>C18*72</f>
+        <f t="shared" si="9"/>
         <v>3168</v>
       </c>
       <c r="F18" t="str">
@@ -1028,11 +1274,11 @@
         <v>60</v>
       </c>
       <c r="D19" s="1">
-        <f>B19*72</f>
+        <f t="shared" si="8"/>
         <v>2880</v>
       </c>
       <c r="E19" s="1">
-        <f>C19*72</f>
+        <f t="shared" si="9"/>
         <v>4320</v>
       </c>
       <c r="F19" t="str">
@@ -1091,7 +1337,7 @@
         <v>148</v>
       </c>
       <c r="E25" s="1">
-        <f>D25*mm2pt</f>
+        <f t="shared" ref="E25:E44" si="10">D25*mm2pt</f>
         <v>419.5275590551181</v>
       </c>
       <c r="F25">
@@ -1107,7 +1353,7 @@
         <v>210</v>
       </c>
       <c r="E26" s="1">
-        <f>D26*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>595.27559055118104</v>
       </c>
     </row>
@@ -1116,7 +1362,7 @@
         <v>7.25</v>
       </c>
       <c r="E27" s="1">
-        <f>D27*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>20.551181102362204</v>
       </c>
       <c r="F27" s="1">
@@ -1129,7 +1375,7 @@
         <v>10.5</v>
       </c>
       <c r="E28" s="1">
-        <f>D28*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>29.763779527559052</v>
       </c>
       <c r="F28" s="1">
@@ -1145,7 +1391,7 @@
         <v>1280</v>
       </c>
       <c r="E29" s="1">
-        <f>D29*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>3628.3464566929133</v>
       </c>
       <c r="G29" t="str">
@@ -1161,11 +1407,11 @@
         <v>900</v>
       </c>
       <c r="E30" s="1">
-        <f>D30*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>2551.1811023622045</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" ref="G30:G39" si="8">"# " &amp; D31 &amp; "mm x " &amp; D30  &amp; "mm"</f>
+        <f t="shared" ref="G30:G39" si="11">"# " &amp; D31 &amp; "mm x " &amp; D30  &amp; "mm"</f>
         <v># 640mm x 900mm</v>
       </c>
     </row>
@@ -1177,11 +1423,11 @@
         <v>640</v>
       </c>
       <c r="E31" s="1">
-        <f>D31*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>1814.1732283464567</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v># 450mm x 640mm</v>
       </c>
     </row>
@@ -1193,11 +1439,11 @@
         <v>450</v>
       </c>
       <c r="E32" s="1">
-        <f>D32*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>1275.5905511811022</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v># 320mm x 450mm</v>
       </c>
     </row>
@@ -1209,11 +1455,11 @@
         <v>320</v>
       </c>
       <c r="E33" s="1">
-        <f>D33*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>907.08661417322833</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v># 225mm x 320mm</v>
       </c>
     </row>
@@ -1222,7 +1468,7 @@
         <v>225</v>
       </c>
       <c r="E34" s="1">
-        <f>D34*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>637.79527559055111</v>
       </c>
     </row>
@@ -1234,11 +1480,11 @@
         <v>1220</v>
       </c>
       <c r="E35" s="1">
-        <f>D35*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>3458.267716535433</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v># 860mm x 1220mm</v>
       </c>
     </row>
@@ -1250,11 +1496,11 @@
         <v>860</v>
       </c>
       <c r="E36" s="1">
-        <f>D36*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>2437.7952755905512</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v># 610mm x 860mm</v>
       </c>
     </row>
@@ -1266,11 +1512,11 @@
         <v>610</v>
       </c>
       <c r="E37" s="1">
-        <f>D37*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>1729.1338582677165</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v># 430mm x 610mm</v>
       </c>
     </row>
@@ -1282,11 +1528,11 @@
         <v>430</v>
       </c>
       <c r="E38" s="1">
-        <f>D38*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>1218.8976377952756</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v># 305mm x 430mm</v>
       </c>
     </row>
@@ -1298,11 +1544,11 @@
         <v>305</v>
       </c>
       <c r="E39" s="1">
-        <f>D39*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>864.56692913385825</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v># 215mm x 305mm</v>
       </c>
     </row>
@@ -1311,7 +1557,7 @@
         <v>215</v>
       </c>
       <c r="E40" s="1">
-        <f>D40*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>609.44881889763781</v>
       </c>
     </row>
@@ -1323,7 +1569,7 @@
         <v>660</v>
       </c>
       <c r="E41" s="1">
-        <f>D41*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>1870.8661417322833</v>
       </c>
     </row>
@@ -1332,7 +1578,7 @@
         <v>965</v>
       </c>
       <c r="E42" s="1">
-        <f>D42*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>2735.4330708661414</v>
       </c>
     </row>
@@ -1344,7 +1590,7 @@
         <v>686</v>
       </c>
       <c r="E43" s="1">
-        <f>D43*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>1944.5669291338581</v>
       </c>
     </row>
@@ -1353,7 +1599,7 @@
         <v>991</v>
       </c>
       <c r="E44" s="1">
-        <f>D44*mm2pt</f>
+        <f t="shared" si="10"/>
         <v>2809.1338582677163</v>
       </c>
     </row>
@@ -1370,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="1">
-        <f>D48*in2pt</f>
+        <f t="shared" ref="E48:E55" si="12">D48*in2pt</f>
         <v>576</v>
       </c>
       <c r="G48" t="str">
@@ -1383,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="1">
-        <f>D49*in2pt</f>
+        <f t="shared" si="12"/>
         <v>720</v>
       </c>
     </row>
@@ -1395,7 +1641,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="1">
-        <f>D50*in2pt</f>
+        <f t="shared" si="12"/>
         <v>1152</v>
       </c>
       <c r="G50" t="str">
@@ -1408,7 +1654,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="1">
-        <f>D51*in2pt</f>
+        <f t="shared" si="12"/>
         <v>1440</v>
       </c>
     </row>
@@ -1420,7 +1666,7 @@
         <v>22</v>
       </c>
       <c r="E52" s="1">
-        <f>D52*in2pt</f>
+        <f t="shared" si="12"/>
         <v>1584</v>
       </c>
     </row>
@@ -1429,7 +1675,7 @@
         <v>28</v>
       </c>
       <c r="E53" s="1">
-        <f>D53*in2pt</f>
+        <f t="shared" si="12"/>
         <v>2016</v>
       </c>
     </row>
@@ -1438,7 +1684,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="1">
-        <f>D54*in2pt</f>
+        <f t="shared" si="12"/>
         <v>792</v>
       </c>
     </row>
@@ -1447,8 +1693,938 @@
         <v>17</v>
       </c>
       <c r="E55" s="1">
-        <f>D55*in2pt</f>
+        <f t="shared" si="12"/>
         <v>1224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94192D04-E25D-EF48-B18A-6831EEAD315B}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" ref="C2:D2">_xlfn.TEXTSPLIT(B2," × ")</f>
+        <v>841</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1189</v>
+      </c>
+      <c r="E2" s="1">
+        <f>C2*mm2pt</f>
+        <v>2383.9370078740158</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2*mm2pt</f>
+        <v>3370.3937007874015</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"'"&amp;LOWER((A2)&amp;"': ("&amp;TEXT(E2, "0.00")&amp;", "&amp;TEXT(F2, "0.00")&amp;"), # "&amp;C2&amp;"mm x "&amp;D2&amp;"mm")</f>
+        <v>'a0': (2383.94, 3370.39), # 841mm x 1189mm</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3:D3">_xlfn.TEXTSPLIT(B3," × ")</f>
+        <v>594</v>
+      </c>
+      <c r="D3" t="str">
+        <v>841</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3*mm2pt</f>
+        <v>1683.7795275590549</v>
+      </c>
+      <c r="F3" s="1">
+        <f>D3*mm2pt</f>
+        <v>2383.9370078740158</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G34" si="0">"'"&amp;LOWER((A3)&amp;"': ("&amp;TEXT(E3, "0.00")&amp;", "&amp;TEXT(F3, "0.00")&amp;"), # "&amp;C3&amp;"mm x "&amp;D3&amp;"mm")</f>
+        <v>'a1': (1683.78, 2383.94), # 594mm x 841mm</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="str" cm="1">
+        <f t="array" ref="C4:D4">_xlfn.TEXTSPLIT(B4," × ")</f>
+        <v>420</v>
+      </c>
+      <c r="D4" t="str">
+        <v>594</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4*mm2pt</f>
+        <v>1190.5511811023621</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4*mm2pt</f>
+        <v>1683.7795275590549</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>'a2': (1190.55, 1683.78), # 420mm x 594mm</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="str" cm="1">
+        <f t="array" ref="C5:D5">_xlfn.TEXTSPLIT(B5," × ")</f>
+        <v>297</v>
+      </c>
+      <c r="D5" t="str">
+        <v>420</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5*mm2pt</f>
+        <v>841.88976377952747</v>
+      </c>
+      <c r="F5" s="1">
+        <f>D5*mm2pt</f>
+        <v>1190.5511811023621</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>'a3': (841.89, 1190.55), # 297mm x 420mm</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6:D6">_xlfn.TEXTSPLIT(B6," × ")</f>
+        <v>210</v>
+      </c>
+      <c r="D6" t="str">
+        <v>297</v>
+      </c>
+      <c r="E6" s="1">
+        <f>C6*mm2pt</f>
+        <v>595.27559055118104</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6*mm2pt</f>
+        <v>841.88976377952747</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>'a4': (595.28, 841.89), # 210mm x 297mm</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7:D7">_xlfn.TEXTSPLIT(B7," × ")</f>
+        <v>148</v>
+      </c>
+      <c r="D7" t="str">
+        <v>210</v>
+      </c>
+      <c r="E7" s="1">
+        <f>C7*mm2pt</f>
+        <v>419.5275590551181</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D7*mm2pt</f>
+        <v>595.27559055118104</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>'a5': (419.53, 595.28), # 148mm x 210mm</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="str" cm="1">
+        <f t="array" ref="C8:D8">_xlfn.TEXTSPLIT(B8," × ")</f>
+        <v>105</v>
+      </c>
+      <c r="D8" t="str">
+        <v>148</v>
+      </c>
+      <c r="E8" s="1">
+        <f>C8*mm2pt</f>
+        <v>297.63779527559052</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D8*mm2pt</f>
+        <v>419.5275590551181</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>'a6': (297.64, 419.53), # 105mm x 148mm</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="str" cm="1">
+        <f t="array" ref="C9:D9">_xlfn.TEXTSPLIT(B9," × ")</f>
+        <v>74</v>
+      </c>
+      <c r="D9" t="str">
+        <v>105</v>
+      </c>
+      <c r="E9" s="1">
+        <f>C9*mm2pt</f>
+        <v>209.76377952755905</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D9*mm2pt</f>
+        <v>297.63779527559052</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>'a7': (209.76, 297.64), # 74mm x 105mm</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="str" cm="1">
+        <f t="array" ref="C10:D10">_xlfn.TEXTSPLIT(B10," × ")</f>
+        <v>52</v>
+      </c>
+      <c r="D10" t="str">
+        <v>74</v>
+      </c>
+      <c r="E10" s="1">
+        <f>C10*mm2pt</f>
+        <v>147.4015748031496</v>
+      </c>
+      <c r="F10" s="1">
+        <f>D10*mm2pt</f>
+        <v>209.76377952755905</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>'a8': (147.40, 209.76), # 52mm x 74mm</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="str" cm="1">
+        <f t="array" ref="C11:D11">_xlfn.TEXTSPLIT(B11," × ")</f>
+        <v>37</v>
+      </c>
+      <c r="D11" t="str">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11*mm2pt</f>
+        <v>104.88188976377953</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11*mm2pt</f>
+        <v>147.4015748031496</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>'a9': (104.88, 147.40), # 37mm x 52mm</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="str" cm="1">
+        <f t="array" ref="C12:D12">_xlfn.TEXTSPLIT(B12," × ")</f>
+        <v>26</v>
+      </c>
+      <c r="D12" t="str">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1">
+        <f>C12*mm2pt</f>
+        <v>73.7007874015748</v>
+      </c>
+      <c r="F12" s="1">
+        <f>D12*mm2pt</f>
+        <v>104.88188976377953</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>'a10': (73.70, 104.88), # 26mm x 37mm</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="str" cm="1">
+        <f t="array" ref="C13:D13">_xlfn.TEXTSPLIT(B13," × ")</f>
+        <v>1000</v>
+      </c>
+      <c r="D13" t="str">
+        <v>1414</v>
+      </c>
+      <c r="E13" s="1">
+        <f>C13*mm2pt</f>
+        <v>2834.6456692913384</v>
+      </c>
+      <c r="F13" s="1">
+        <f>D13*mm2pt</f>
+        <v>4008.1889763779527</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>'b0': (2834.65, 4008.19), # 1000mm x 1414mm</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="str" cm="1">
+        <f t="array" ref="C14:D14">_xlfn.TEXTSPLIT(B14," × ")</f>
+        <v>707</v>
+      </c>
+      <c r="D14" t="str">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="1">
+        <f>C14*mm2pt</f>
+        <v>2004.0944881889764</v>
+      </c>
+      <c r="F14" s="1">
+        <f>D14*mm2pt</f>
+        <v>2834.6456692913384</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>'b1': (2004.09, 2834.65), # 707mm x 1000mm</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="str" cm="1">
+        <f t="array" ref="C15:D15">_xlfn.TEXTSPLIT(B15," × ")</f>
+        <v>500</v>
+      </c>
+      <c r="D15" t="str">
+        <v>707</v>
+      </c>
+      <c r="E15" s="1">
+        <f>C15*mm2pt</f>
+        <v>1417.3228346456692</v>
+      </c>
+      <c r="F15" s="1">
+        <f>D15*mm2pt</f>
+        <v>2004.0944881889764</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>'b2': (1417.32, 2004.09), # 500mm x 707mm</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="str" cm="1">
+        <f t="array" ref="C16:D16">_xlfn.TEXTSPLIT(B16," × ")</f>
+        <v>353</v>
+      </c>
+      <c r="D16" t="str">
+        <v>500</v>
+      </c>
+      <c r="E16" s="1">
+        <f>C16*mm2pt</f>
+        <v>1000.6299212598425</v>
+      </c>
+      <c r="F16" s="1">
+        <f>D16*mm2pt</f>
+        <v>1417.3228346456692</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>'b3': (1000.63, 1417.32), # 353mm x 500mm</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="str" cm="1">
+        <f t="array" ref="C17:D17">_xlfn.TEXTSPLIT(B17," × ")</f>
+        <v>250</v>
+      </c>
+      <c r="D17" t="str">
+        <v>353</v>
+      </c>
+      <c r="E17" s="1">
+        <f>C17*mm2pt</f>
+        <v>708.66141732283461</v>
+      </c>
+      <c r="F17" s="1">
+        <f>D17*mm2pt</f>
+        <v>1000.6299212598425</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>'b4': (708.66, 1000.63), # 250mm x 353mm</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="str" cm="1">
+        <f t="array" ref="C18:D18">_xlfn.TEXTSPLIT(B18," × ")</f>
+        <v>176</v>
+      </c>
+      <c r="D18" t="str">
+        <v>250</v>
+      </c>
+      <c r="E18" s="1">
+        <f>C18*mm2pt</f>
+        <v>498.89763779527556</v>
+      </c>
+      <c r="F18" s="1">
+        <f>D18*mm2pt</f>
+        <v>708.66141732283461</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>'b5': (498.90, 708.66), # 176mm x 250mm</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="str" cm="1">
+        <f t="array" ref="C19:D19">_xlfn.TEXTSPLIT(B19," × ")</f>
+        <v>125</v>
+      </c>
+      <c r="D19" t="str">
+        <v>176</v>
+      </c>
+      <c r="E19" s="1">
+        <f>C19*mm2pt</f>
+        <v>354.3307086614173</v>
+      </c>
+      <c r="F19" s="1">
+        <f>D19*mm2pt</f>
+        <v>498.89763779527556</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>'b6': (354.33, 498.90), # 125mm x 176mm</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="str" cm="1">
+        <f t="array" ref="C20:D20">_xlfn.TEXTSPLIT(B20," × ")</f>
+        <v>88</v>
+      </c>
+      <c r="D20" t="str">
+        <v>125</v>
+      </c>
+      <c r="E20" s="1">
+        <f>C20*mm2pt</f>
+        <v>249.44881889763778</v>
+      </c>
+      <c r="F20" s="1">
+        <f>D20*mm2pt</f>
+        <v>354.3307086614173</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>'b7': (249.45, 354.33), # 88mm x 125mm</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="str" cm="1">
+        <f t="array" ref="C21:D21">_xlfn.TEXTSPLIT(B21," × ")</f>
+        <v>62</v>
+      </c>
+      <c r="D21" t="str">
+        <v>88</v>
+      </c>
+      <c r="E21" s="1">
+        <f>C21*mm2pt</f>
+        <v>175.74803149606299</v>
+      </c>
+      <c r="F21" s="1">
+        <f>D21*mm2pt</f>
+        <v>249.44881889763778</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>'b8': (175.75, 249.45), # 62mm x 88mm</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="str" cm="1">
+        <f t="array" ref="C22:D22">_xlfn.TEXTSPLIT(B22," × ")</f>
+        <v>44</v>
+      </c>
+      <c r="D22" t="str">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1">
+        <f>C22*mm2pt</f>
+        <v>124.72440944881889</v>
+      </c>
+      <c r="F22" s="1">
+        <f>D22*mm2pt</f>
+        <v>175.74803149606299</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>'b9': (124.72, 175.75), # 44mm x 62mm</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="str" cm="1">
+        <f t="array" ref="C23:D23">_xlfn.TEXTSPLIT(B23," × ")</f>
+        <v>31</v>
+      </c>
+      <c r="D23" t="str">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1">
+        <f>C23*mm2pt</f>
+        <v>87.874015748031496</v>
+      </c>
+      <c r="F23" s="1">
+        <f>D23*mm2pt</f>
+        <v>124.72440944881889</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>'b10': (87.87, 124.72), # 31mm x 44mm</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="str" cm="1">
+        <f t="array" ref="C24:D24">_xlfn.TEXTSPLIT(B24," × ")</f>
+        <v>917</v>
+      </c>
+      <c r="D24" t="str">
+        <v>1297</v>
+      </c>
+      <c r="E24" s="1">
+        <f>C24*mm2pt</f>
+        <v>2599.3700787401572</v>
+      </c>
+      <c r="F24" s="1">
+        <f>D24*mm2pt</f>
+        <v>3676.535433070866</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>'c0': (2599.37, 3676.54), # 917mm x 1297mm</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="str" cm="1">
+        <f t="array" ref="C25:D25">_xlfn.TEXTSPLIT(B25," × ")</f>
+        <v>648</v>
+      </c>
+      <c r="D25" t="str">
+        <v>917</v>
+      </c>
+      <c r="E25" s="1">
+        <f>C25*mm2pt</f>
+        <v>1836.8503937007872</v>
+      </c>
+      <c r="F25" s="1">
+        <f>D25*mm2pt</f>
+        <v>2599.3700787401572</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>'c1': (1836.85, 2599.37), # 648mm x 917mm</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="str" cm="1">
+        <f t="array" ref="C26:D26">_xlfn.TEXTSPLIT(B26," × ")</f>
+        <v>458</v>
+      </c>
+      <c r="D26" t="str">
+        <v>648</v>
+      </c>
+      <c r="E26" s="1">
+        <f>C26*mm2pt</f>
+        <v>1298.267716535433</v>
+      </c>
+      <c r="F26" s="1">
+        <f>D26*mm2pt</f>
+        <v>1836.8503937007872</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>'c2': (1298.27, 1836.85), # 458mm x 648mm</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="str" cm="1">
+        <f t="array" ref="C27:D27">_xlfn.TEXTSPLIT(B27," × ")</f>
+        <v>324</v>
+      </c>
+      <c r="D27" t="str">
+        <v>458</v>
+      </c>
+      <c r="E27" s="1">
+        <f>C27*mm2pt</f>
+        <v>918.4251968503936</v>
+      </c>
+      <c r="F27" s="1">
+        <f>D27*mm2pt</f>
+        <v>1298.267716535433</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>'c3': (918.43, 1298.27), # 324mm x 458mm</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="str" cm="1">
+        <f t="array" ref="C28:D28">_xlfn.TEXTSPLIT(B28," × ")</f>
+        <v>229</v>
+      </c>
+      <c r="D28" t="str">
+        <v>324</v>
+      </c>
+      <c r="E28" s="1">
+        <f>C28*mm2pt</f>
+        <v>649.1338582677165</v>
+      </c>
+      <c r="F28" s="1">
+        <f>D28*mm2pt</f>
+        <v>918.4251968503936</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>'c4': (649.13, 918.43), # 229mm x 324mm</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="str" cm="1">
+        <f t="array" ref="C29:D29">_xlfn.TEXTSPLIT(B29," × ")</f>
+        <v>162</v>
+      </c>
+      <c r="D29" t="str">
+        <v>229</v>
+      </c>
+      <c r="E29" s="1">
+        <f>C29*mm2pt</f>
+        <v>459.2125984251968</v>
+      </c>
+      <c r="F29" s="1">
+        <f>D29*mm2pt</f>
+        <v>649.1338582677165</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>'c5': (459.21, 649.13), # 162mm x 229mm</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="str" cm="1">
+        <f t="array" ref="C30:D30">_xlfn.TEXTSPLIT(B30," × ")</f>
+        <v>114</v>
+      </c>
+      <c r="D30" t="str">
+        <v>162</v>
+      </c>
+      <c r="E30" s="1">
+        <f>C30*mm2pt</f>
+        <v>323.14960629921256</v>
+      </c>
+      <c r="F30" s="1">
+        <f>D30*mm2pt</f>
+        <v>459.2125984251968</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>'c6': (323.15, 459.21), # 114mm x 162mm</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="str" cm="1">
+        <f t="array" ref="C31:D31">_xlfn.TEXTSPLIT(B31," × ")</f>
+        <v>81</v>
+      </c>
+      <c r="D31" t="str">
+        <v>114</v>
+      </c>
+      <c r="E31" s="1">
+        <f>C31*mm2pt</f>
+        <v>229.6062992125984</v>
+      </c>
+      <c r="F31" s="1">
+        <f>D31*mm2pt</f>
+        <v>323.14960629921256</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>'c7': (229.61, 323.15), # 81mm x 114mm</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="str" cm="1">
+        <f t="array" ref="C32:D32">_xlfn.TEXTSPLIT(B32," × ")</f>
+        <v>57</v>
+      </c>
+      <c r="D32" t="str">
+        <v>81</v>
+      </c>
+      <c r="E32" s="1">
+        <f>C32*mm2pt</f>
+        <v>161.57480314960628</v>
+      </c>
+      <c r="F32" s="1">
+        <f>D32*mm2pt</f>
+        <v>229.6062992125984</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>'c8': (161.57, 229.61), # 57mm x 81mm</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="str" cm="1">
+        <f t="array" ref="C33:D33">_xlfn.TEXTSPLIT(B33," × ")</f>
+        <v>40</v>
+      </c>
+      <c r="D33" t="str">
+        <v>57</v>
+      </c>
+      <c r="E33" s="1">
+        <f>C33*mm2pt</f>
+        <v>113.38582677165354</v>
+      </c>
+      <c r="F33" s="1">
+        <f>D33*mm2pt</f>
+        <v>161.57480314960628</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>'c9': (113.39, 161.57), # 40mm x 57mm</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="str" cm="1">
+        <f t="array" ref="C34:D34">_xlfn.TEXTSPLIT(B34," × ")</f>
+        <v>28</v>
+      </c>
+      <c r="D34" t="str">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1">
+        <f>C34*mm2pt</f>
+        <v>79.370078740157481</v>
+      </c>
+      <c r="F34" s="1">
+        <f>D34*mm2pt</f>
+        <v>113.38582677165354</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>'c10': (79.37, 113.39), # 28mm x 40mm</v>
       </c>
     </row>
   </sheetData>
